--- a/db.xlsx
+++ b/db.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A0:C1"/>
+  <dimension ref="A0:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
@@ -462,6 +462,23 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>김서진</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>040317</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0317</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>
